--- a/exlist/weapons.xlsx
+++ b/exlist/weapons.xlsx
@@ -5,41 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asdf\ASDF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\asdf\exlist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2168D286-3C32-436A-899B-EF477EA0B13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7205F5F1-0CAE-4031-A871-C6D57758AF5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{FDC4E2A3-FC93-4707-9CE7-C510F67A63EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{FDC4E2A3-FC93-4707-9CE7-C510F67A63EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="36">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +92,86 @@
   </si>
   <si>
     <t>500p 이세계를 위한 전공 서적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격력 강화, 무기 개수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 넉백력 강화, 쿨타임 대폭 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격력 대폭 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격력 강화, 무기 개수 +1, 쿨타임 대폭 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임 소폭 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공겨력, 속도 소폭 강화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 머리 방향으로 발사되는 투사체를 해방</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘에서 적들을 교란하는 솜덩어리가 낙하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자는 하늘을 향해 무기를 발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 개수 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 개수 +1, 잔존 시간 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 쿨타임 소폭 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 공격력 상승, 무기의 범위 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기의 범위 증가, 잔존시간 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 개수 +1, 공격력 소폭 상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 개수 +1, 공격력 상승</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -134,27 +204,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -163,11 +218,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -311,7 +363,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1373,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70536743-46A9-42D5-92FE-1FB7C5A7E6F5}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1385,7 +1437,7 @@
     <col min="3" max="3" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1395,8 +1447,14 @@
       <c r="C1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1406,8 +1464,14 @@
       <c r="C2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1417,8 +1481,14 @@
       <c r="C3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1427,6 +1497,12 @@
       </c>
       <c r="C4" t="s">
         <v>13</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1437,21 +1513,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{193AA1CE-759D-4463-952A-D1ECF45D0CB9}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="5" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="51.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1479,8 +1559,17 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
@@ -1503,10 +1592,19 @@
         <v>10</v>
       </c>
       <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -1523,16 +1621,25 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>10</v>
       </c>
       <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4">
         <v>3</v>
       </c>
@@ -1543,7 +1650,7 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1552,13 +1659,22 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
       <c r="B5">
         <v>4</v>
       </c>
@@ -1569,7 +1685,7 @@
         <v>0.7</v>
       </c>
       <c r="E5">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1578,13 +1694,22 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6">
         <v>5</v>
       </c>
@@ -1595,7 +1720,7 @@
         <v>0.7</v>
       </c>
       <c r="E6">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1604,24 +1729,33 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
       <c r="B7">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E7">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1630,62 +1764,86 @@
         <v>2</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.9</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.5</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E9">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1695,262 +1853,338 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D63209-3DF7-4FB0-89CB-753DBB7DCEBA}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDECE3F-C3AB-4E7C-86C7-6F297C92195E}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="51.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D4">
         <v>0.5</v>
       </c>
-      <c r="E2" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>2.5</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2.5</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>4.2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>40</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>4.2</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>70</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>80</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>10</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>90</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3</v>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1960,304 +2194,338 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DF1794-980B-4A14-A669-83FF1FD6B889}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D07BF-AC4A-4038-AB27-BCC1FB50D070}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.08203125" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" customWidth="1"/>
+    <col min="7" max="7" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="51.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1">
-        <f>SUM(Sheet2!B2)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>20</v>
       </c>
-      <c r="D2" s="1">
-        <f>SUM(C2*-20)*0.001</f>
-        <v>-0.4</v>
-      </c>
-      <c r="E2" s="1">
-        <f>SUM(Sheet2!E2)</f>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
         <v>1.5</v>
       </c>
-      <c r="F2" s="1">
-        <f>SUM(Sheet2!F2)</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <f>SUM(Sheet2!G2)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
-        <f>SUM(Sheet2!H2)</f>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" s="1">
-        <f>SUM(Sheet2!I2)</f>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1">
-        <f>SUM(Sheet2!B3)</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <f>SUM(C2+10)</f>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>30</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D9" si="0">SUM(C3*-20)*0.001</f>
-        <v>-0.6</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <f>SUM(Sheet2!B4)</f>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>1.5</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <f>SUM(C3)</f>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.6</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <f>SUM(Sheet2!B5)</f>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <f>SUM(C4+10)</f>
+      <c r="C5">
         <v>40</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.8</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <f>SUM(Sheet2!B6)</f>
+      <c r="D5">
+        <v>0.7</v>
+      </c>
+      <c r="E5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <f>SUM(C5)</f>
+      <c r="C6">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>-0.8</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <f>SUM(Sheet2!B7)</f>
+      <c r="D6">
+        <v>0.7</v>
+      </c>
+      <c r="E6">
+        <v>0.9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <f>SUM(C6+10)</f>
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1">
-        <f>SUM(Sheet2!B8)</f>
+      <c r="D7">
+        <v>0.9</v>
+      </c>
+      <c r="E7">
+        <v>0.9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>20</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <f>SUM(C7)</f>
-        <v>50</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1">
-        <f>SUM(Sheet2!B9)</f>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f>SUM(C8+10)</f>
-        <v>60</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C10" s="1">
-        <f>SUM(C9)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C11" s="1">
-        <f t="shared" ref="C11" si="1">SUM(C10+10)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C12" s="1">
-        <f t="shared" ref="C12" si="2">SUM(C11)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C13" s="1">
-        <f t="shared" ref="C13" si="3">SUM(C12+10)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C14" s="1">
-        <f t="shared" ref="C14" si="4">SUM(C13)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C15" s="1">
-        <f t="shared" ref="C15" si="5">SUM(C14+10)</f>
+      <c r="C9">
         <v>90</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="C16" s="1">
-        <f t="shared" ref="C16" si="6">SUM(C15)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C17" s="1">
-        <f t="shared" ref="C17" si="7">SUM(C16+10)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C18" s="1">
-        <f t="shared" ref="C18" si="8">SUM(C17)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C19" s="1">
-        <f t="shared" ref="C19" si="9">SUM(C18+10)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C20" s="1">
-        <f t="shared" ref="C20" si="10">SUM(C19)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C21" s="1">
-        <f t="shared" ref="C21" si="11">SUM(C20+10)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C22" s="1">
-        <f t="shared" ref="C22" si="12">SUM(C21)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
-      <c r="C23" s="1">
-        <f t="shared" ref="C23" si="13">SUM(C22+10)</f>
-        <v>130</v>
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
